--- a/output/Table_1_panel_B.xlsx
+++ b/output/Table_1_panel_B.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="144" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="144" uniqueCount="57">
   <si>
     <t/>
   </si>
@@ -63,9 +63,6 @@
     <t>12851</t>
   </si>
   <si>
-    <t>12849</t>
-  </si>
-  <si>
     <t>(1)</t>
   </si>
   <si>
@@ -111,7 +108,7 @@
     <t>[0.021]</t>
   </si>
   <si>
-    <t>0.425</t>
+    <t>0.356</t>
   </si>
   <si>
     <t>3625</t>
@@ -120,9 +117,6 @@
     <t>2794</t>
   </si>
   <si>
-    <t>2792</t>
-  </si>
-  <si>
     <t>(2)</t>
   </si>
   <si>
@@ -168,7 +162,7 @@
     <t>[0.048]</t>
   </si>
   <si>
-    <t>0.260</t>
+    <t>0.200</t>
   </si>
   <si>
     <t>t-test</t>
@@ -247,16 +241,16 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">
@@ -267,16 +261,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -287,16 +281,16 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4">
@@ -307,16 +301,16 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5">
@@ -327,13 +321,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
         <v>0</v>
@@ -347,16 +341,16 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7">
@@ -367,13 +361,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s">
         <v>0</v>
@@ -387,16 +381,16 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9">
@@ -407,13 +401,13 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F9" t="s">
         <v>0</v>
@@ -427,16 +421,16 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11">
@@ -447,13 +441,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F11" t="s">
         <v>0</v>
@@ -467,16 +461,16 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13">
@@ -487,13 +481,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
         <v>0</v>
@@ -507,16 +501,16 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15">
@@ -527,13 +521,13 @@
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D15" t="s">
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
         <v>0</v>
@@ -547,16 +541,16 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17">
@@ -567,13 +561,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D17" t="s">
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F17" t="s">
         <v>0</v>
@@ -587,16 +581,16 @@
         <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19">
@@ -607,13 +601,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D19" t="s">
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
         <v>0</v>
@@ -627,16 +621,16 @@
         <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21">
@@ -647,13 +641,13 @@
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D21" t="s">
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F21" t="s">
         <v>0</v>
@@ -664,19 +658,19 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D22" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23">
@@ -687,13 +681,13 @@
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D23" t="s">
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
         <v>0</v>
